--- a/Parsing_exel_file_shop/Бланк заказа.xlsx
+++ b/Parsing_exel_file_shop/Бланк заказа.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\git\Parsing\Parsing_exel_file_shop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E9F55AF-A312-4B10-AF10-7CDF17CD8CC7}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25C16817-01C2-47F0-9030-32C8BC7658E3}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6940" tabRatio="361" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4796,7 +4796,7 @@
       <pane xSplit="12" ySplit="5" topLeftCell="M6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="T1" sqref="T1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="O5" sqref="O5"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.44140625" defaultRowHeight="11.5" customHeight="1" x14ac:dyDescent="0.25"/>
